--- a/QA_reports/bug_reports/Ziemos_kodas_Bug_Report_CASE ZK_FR18_2_RB.xlsx
+++ b/QA_reports/bug_reports/Ziemos_kodas_Bug_Report_CASE ZK_FR18_2_RB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vartotojas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtmc-my.sharepoint.com/personal/robertas_butylkinas_stud_techin_lt/Documents/Ziemos_kodas/QA_reports/bug_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D4B74D-76B9-418D-BD5C-E2BCAAC4E676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{23D4B74D-76B9-418D-BD5C-E2BCAAC4E676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FFBF4BC-80F6-43BB-8404-99DE9EF11EF8}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZK_Bug_Report" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Field</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Home Page/„app“ section</t>
-  </si>
-  <si>
-    <t>Mid</t>
   </si>
   <si>
     <t>Robertas Butylkinas</t>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>"app" description is too close to "finances" section icons</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,23 +288,22 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,7 +595,7 @@
   <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -619,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -642,48 +641,46 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>36</v>
+      <c r="B5" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>37</v>
+      <c r="B7" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>38</v>
+      <c r="B8" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>39</v>
+      <c r="B9" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>40</v>
+      <c r="B10" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -699,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -707,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +727,9 @@
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4">
+        <v>45262</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -808,10 +807,6 @@
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-    </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
@@ -880,10 +875,6 @@
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-    </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
@@ -957,72 +948,72 @@
       <c r="B72" s="7"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
@@ -1240,10 +1231,6 @@
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-    </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
@@ -1311,10 +1298,6 @@
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
